--- a/andes/cases/kundur/kundur_freq.xlsx
+++ b/andes/cases/kundur/kundur_freq.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/kundur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA1A545-6835-064E-8F80-33F856CDDA67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57388D7-AC73-D341-8E1A-6063A3F75FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22240" yWindow="9540" windowWidth="29500" windowHeight="17460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22240" yWindow="9540" windowWidth="29500" windowHeight="17460" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
   <si>
     <t>idx</t>
   </si>
@@ -354,12 +354,6 @@
   </si>
   <si>
     <t>SE2</t>
-  </si>
-  <si>
-    <t>Ae</t>
-  </si>
-  <si>
-    <t>Be</t>
   </si>
   <si>
     <t>EXDC2_1</t>
@@ -1324,16 +1318,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1394,25 +1388,19 @@
       <c r="T1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1462,14 +1450,8 @@
       <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1480,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1530,14 +1512,8 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1548,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1598,14 +1574,8 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1616,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1664,12 +1634,6 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
         <v>0</v>
       </c>
     </row>
@@ -1703,13 +1667,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1723,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -1744,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B11"/>
     </sheetView>
@@ -1772,10 +1736,10 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>29</v>
@@ -1786,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1803,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1820,13 +1784,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1837,13 +1801,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1854,13 +1818,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1871,13 +1835,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -1888,13 +1852,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1905,13 +1869,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1922,13 +1886,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1939,13 +1903,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E11">
         <v>10</v>

--- a/andes/cases/kundur/kundur_freq.xlsx
+++ b/andes/cases/kundur/kundur_freq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hcui7/repos/andes/andes/cases/kundur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57388D7-AC73-D341-8E1A-6063A3F75FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ACF65C-0222-5048-B257-CEBDABFE187A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22240" yWindow="9540" windowWidth="29500" windowHeight="17460" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1322,7 +1322,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5:T5"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1631,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
